--- a/dataexport.xlsx
+++ b/dataexport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>Logo 1</t>
   </si>
@@ -107,10 +107,16 @@
     <t>Nombre d’absences injustifiées</t>
   </si>
   <si>
+    <t>BUT 3 – S5</t>
+  </si>
+  <si>
     <t>Avis de l’équipe pédagogique pour la poursuite d’études après le BUT3</t>
   </si>
   <si>
     <t>Très Favorable</t>
+  </si>
+  <si>
+    <t>Favorable</t>
   </si>
   <si>
     <t>Assez Favorable</t>
@@ -846,9 +852,7 @@
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="8">
-        <v>11.48</v>
-      </c>
+      <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -859,9 +863,7 @@
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="8">
-        <v>12.37</v>
-      </c>
+      <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -872,9 +874,7 @@
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="8">
-        <v>10.38</v>
-      </c>
+      <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -885,9 +885,7 @@
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="8">
-        <v>12.9</v>
-      </c>
+      <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -898,9 +896,7 @@
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="8">
-        <v>12.08</v>
-      </c>
+      <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -911,9 +907,7 @@
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="8">
-        <v>11.66</v>
-      </c>
+      <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -925,10 +919,12 @@
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="8">
-        <v>13.6</v>
+        <v>14.9</v>
       </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="F25" s="8">
+        <v>15.32</v>
+      </c>
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:11" customHeight="1" ht="12.8">
@@ -938,10 +934,12 @@
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="8">
-        <v>12.25</v>
+        <v>12.46</v>
       </c>
       <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="F26" s="8">
+        <v>1.53</v>
+      </c>
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:11" customHeight="1" ht="12.8">
@@ -950,27 +948,20 @@
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="8">
-        <v>13.83</v>
-      </c>
+      <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:11">
-      <c r="D28">
-        <v>11.31</v>
-      </c>
-    </row>
     <row r="29" spans="1:11" customHeight="1" ht="12.8">
-      <c r="D29" s="9">
-        <v>11.21</v>
+      <c r="D29" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:11" customHeight="1" ht="12.8">
-      <c r="D30" s="10">
-        <v>11.45</v>
+      <c r="D30" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>20</v>
@@ -983,7 +974,7 @@
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="8">
-        <v>11.48</v>
+        <v>11.66</v>
       </c>
       <c r="E31" s="8"/>
     </row>
@@ -994,7 +985,7 @@
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="8">
-        <v>12.37</v>
+        <v>13.6</v>
       </c>
       <c r="E32" s="8"/>
     </row>
@@ -1005,7 +996,7 @@
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="8">
-        <v>10.38</v>
+        <v>12.25</v>
       </c>
       <c r="E33" s="8"/>
     </row>
@@ -1016,7 +1007,7 @@
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="8">
-        <v>12.9</v>
+        <v>13.83</v>
       </c>
       <c r="E34" s="8"/>
     </row>
@@ -1027,7 +1018,7 @@
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="8">
-        <v>12.08</v>
+        <v>11.31</v>
       </c>
       <c r="E35" s="8"/>
     </row>
@@ -1038,7 +1029,7 @@
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="8">
-        <v>11.66</v>
+        <v>11.21</v>
       </c>
       <c r="E36" s="8"/>
     </row>
@@ -1048,9 +1039,7 @@
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="8">
-        <v>13.6</v>
-      </c>
+      <c r="D37" s="8"/>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:11" customHeight="1" ht="12.8">
@@ -1059,25 +1048,16 @@
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="7">
-        <v>12.25</v>
-      </c>
+      <c r="D38" s="7"/>
       <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="D39">
-        <v>13.83</v>
-      </c>
     </row>
     <row r="40" spans="1:11" customHeight="1" ht="12.8">
       <c r="A40" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="3">
-        <v>11.31</v>
-      </c>
+      <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -1085,9 +1065,6 @@
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:11" customHeight="1" ht="12.8">
-      <c r="D41">
-        <v>11.21</v>
-      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
     </row>
@@ -1095,43 +1072,39 @@
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="6">
-        <v>11.45</v>
+        <v>32</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:11" customHeight="1" ht="21.35">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="14">
-        <v>9.59</v>
-      </c>
+      <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
     </row>
     <row r="44" spans="1:11" customHeight="1" ht="21.35">
       <c r="A44" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C44" s="14"/>
-      <c r="D44" s="14">
-        <v>13.57</v>
-      </c>
+      <c r="D44" s="14"/>
       <c r="E44" s="17"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
@@ -1139,27 +1112,23 @@
     <row r="45" spans="1:11" customHeight="1" ht="23">
       <c r="A45" s="16"/>
       <c r="B45" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C45" s="8"/>
-      <c r="D45" s="8">
-        <v>13.6</v>
-      </c>
+      <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
     </row>
     <row r="46" spans="1:11" customHeight="1" ht="23.5">
       <c r="A46" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="C46" s="8"/>
-      <c r="D46" s="8">
-        <v>11.69</v>
-      </c>
+      <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
@@ -1167,74 +1136,55 @@
     <row r="47" spans="1:11" customHeight="1" ht="12.8">
       <c r="A47" s="15"/>
       <c r="B47" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C47" s="8"/>
-      <c r="D47" s="8">
-        <v>9.95</v>
-      </c>
+      <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
     </row>
     <row r="48" spans="1:11" customHeight="1" ht="12.8">
       <c r="A48" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="7">
-        <v>10.93</v>
-      </c>
+      <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
     <row r="49" spans="1:11" customHeight="1" ht="12.8">
-      <c r="D49">
-        <v>11.74</v>
-      </c>
       <c r="E49" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:11" customHeight="1" ht="12.8">
-      <c r="D50">
-        <v>13.0</v>
-      </c>
       <c r="E50" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
     </row>
     <row r="51" spans="1:11" customHeight="1" ht="12.8">
-      <c r="D51">
-        <v>12.84</v>
-      </c>
       <c r="E51" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:11" customHeight="1" ht="26.5" hidden="true">
-      <c r="D52">
-        <v>12.69</v>
-      </c>
-    </row>
+    <row r="52" spans="1:11" customHeight="1" ht="26.5" hidden="true"/>
     <row r="53" spans="1:11" customHeight="1" ht="12.8">
       <c r="A53" s="20"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
-      <c r="D53" s="20">
-        <v>10.39</v>
-      </c>
+      <c r="D53" s="20"/>
       <c r="E53" s="21"/>
       <c r="F53" s="20"/>
       <c r="G53" s="21"/>
@@ -1247,9 +1197,7 @@
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
-      <c r="D54" s="21">
-        <v>11.73</v>
-      </c>
+      <c r="D54" s="21"/>
       <c r="E54" s="21"/>
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
